--- a/output/onkologia/2024/sheets/year_2024.xlsx
+++ b/output/onkologia/2024/sheets/year_2024.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,55 +481,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2.670967741935484</v>
+        <v>35.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2.667741935483871</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5.986206896551725</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.824137931034483</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11.69032258064516</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.116129032258065</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.726666666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.303333333333333</v>
+        <v>34.6</v>
       </c>
     </row>
   </sheetData>
